--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,31 @@
     <t>name</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>boring</t>
   </si>
   <si>
     <t>worse</t>
@@ -70,57 +73,57 @@
     <t>dangerous</t>
   </si>
   <si>
+    <t>sorry</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>serious</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
     <t>seriously</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,12 +136,12 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
@@ -160,25 +163,37 @@
     <t>love</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>really</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>media</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>’</t>
+    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -539,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,10 +626,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,16 +694,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -779,16 +794,16 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.8666666666666667</v>
+        <v>0.84</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9230769230769231</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.82</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9090909090909091</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
         <v>0.7</v>
@@ -908,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8787878787878788</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.6842105263157895</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
         <v>0.5862068965517241</v>
@@ -1029,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>0.5733333333333334</v>
@@ -1058,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.5333333333333333</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.675</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,38 +1173,38 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>0.3703703703703703</v>
+      </c>
+      <c r="L14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="M14">
         <v>10</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="L14">
-        <v>6</v>
-      </c>
-      <c r="M14">
-        <v>6</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1223,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.1875</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6153846153846154</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.1111111111111111</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="L16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="M16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5882352941176471</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17">
+        <v>0.2121212121212121</v>
+      </c>
+      <c r="L17">
         <v>7</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="L17">
-        <v>6</v>
-      </c>
       <c r="M17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.07832422586520947</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L18">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1012</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.02108433734939759</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1450,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>650</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4705882352941176</v>
+        <v>0.5144927536231884</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.01481481481481482</v>
+        <v>0.075591985428051</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1500,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>532</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,13 +1541,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.01280409731113956</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L21">
         <v>10</v>
@@ -1550,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>771</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,7 +1573,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3809523809523809</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -1576,7 +1591,31 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>0.01538461538461539</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
         <v>13</v>
+      </c>
+      <c r="N22">
+        <v>0.92</v>
+      </c>
+      <c r="O22">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1584,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3617021276595745</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1602,7 +1641,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1610,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.35</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1629,6 +1692,30 @@
       </c>
       <c r="H24">
         <v>13</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="L24">
+        <v>6</v>
+      </c>
+      <c r="M24">
+        <v>6</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>534</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1636,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3478260869565217</v>
+        <v>0.4</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1654,7 +1741,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25">
+        <v>0.003456221198156682</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1730</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1662,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3461538461538461</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1680,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1688,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3428571428571429</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1706,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1714,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2857142857142857</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1732,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1740,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1758,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1766,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1153846153846154</v>
+        <v>0.25</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1784,7 +1895,33 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
